--- a/workbook_for_pandas.xlsx
+++ b/workbook_for_pandas.xlsx
@@ -476,7 +476,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -2788,7 +2788,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -3558,7 +3558,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -4360,7 +4360,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -5929,7 +5929,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -6492,7 +6492,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -7062,7 +7062,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="7.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -7626,7 +7626,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -8382,7 +8382,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="5" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -11076,7 +11076,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -12720,7 +12720,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="13.33203125" customWidth="1" min="1" max="1"/>
   </cols>
